--- a/Nodes_faults/warnings_old_kvu.xlsx
+++ b/Nodes_faults/warnings_old_kvu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\PycharmProjects\VMU_monitor\Nodes_faults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EC3BC7D-224A-4E52-AADC-B17251DA7A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F737B-4983-48CB-8A6C-813822BEA8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFBCEE2D-F56C-43A7-95C0-0D36BEE42F2B}"/>
   </bookViews>
@@ -488,140 +488,137 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
